--- a/assm-user/src/resources/ForgotPasswordData.xlsx
+++ b/assm-user/src/resources/ForgotPasswordData.xlsx
@@ -3,17 +3,18 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="0"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Test Result" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>ID</t>
   </si>
@@ -46,6 +47,45 @@
   </si>
   <si>
     <t>Scarlet@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test ID</t>
+  </si>
+  <si>
+    <t>Action</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Input data</t>
+  </si>
+  <si>
+    <t>Expected</t>
+  </si>
+  <si>
+    <t>Actual</t>
+  </si>
+  <si>
+    <t>Result</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test Change password</t>
+  </si>
+  <si>
+    <t xml:space="preserve">batman, Thanos@gmail.com</t>
+  </si>
+  <si>
+    <t>Phimkhongmoi</t>
+  </si>
+  <si>
+    <t>Passed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">captainemerica, Captain@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">blackwidow, Black@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">scarlet, Scarlet@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -624,11 +664,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="15.85546875"/>
+    <col customWidth="1" min="1" max="1" width="5.57421875"/>
     <col customWidth="1" min="2" max="2" width="23.85546875"/>
-    <col customWidth="1" min="3" max="3" width="17.28515625"/>
-    <col customWidth="1" min="4" max="4" width="18.7109375"/>
-    <col customWidth="1" min="5" max="5" width="18.28515625"/>
+    <col collapsed="1" customWidth="1" min="3" max="3" width="17.28515625"/>
+    <col collapsed="1" customWidth="1" min="4" max="4" width="18.7109375"/>
+    <col collapsed="1" customWidth="1" min="5" max="5" width="18.28515625"/>
   </cols>
   <sheetData>
     <row r="1" ht="16.5">
@@ -698,4 +738,128 @@
   <pageSetup paperSize="9" scale="100" firstPageNumber="2147483647" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100">
+      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col bestFit="1" min="1" max="1" width="6.57421875"/>
+    <col bestFit="1" min="2" max="2" width="19.8515625"/>
+    <col bestFit="1" min="3" max="3" width="32.00390625"/>
+    <col bestFit="1" min="4" max="5" width="13.8515625"/>
+    <col bestFit="1" min="6" max="6" width="6.7109375"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="0" gridLines="0"/>
+  <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="2147483647" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <headerFooter/>
+</worksheet>
 </file>